--- a/Thesis_Data_EDorman.xlsx
+++ b/Thesis_Data_EDorman.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A5561-82B3-4928-9CDF-A977D93C3746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB5063-0934-4159-8276-82B6E62DA744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="650">
   <si>
     <t>Zanzibar</t>
   </si>
@@ -2036,6 +2036,27 @@
   </si>
   <si>
     <t>on eastern shore of Lake Chad</t>
+  </si>
+  <si>
+    <t>separates Niger and Chad watersheds</t>
+  </si>
+  <si>
+    <t>abundant wildlife, farthest reach of Barth</t>
+  </si>
+  <si>
+    <t>trade hub, initially receptive but turns hostile</t>
+  </si>
+  <si>
+    <t>both, Waterloo Place is a real street, not far from the Travelers club, but there does not appear to be a current place with the number three</t>
+  </si>
+  <si>
+    <t>city on large island, commercially active</t>
+  </si>
+  <si>
+    <t>Victoria stops for the night and the heating mechanism is disposed, is ambushed by local warlord</t>
+  </si>
+  <si>
+    <t>Victoria reflated with hot to send her over the Senegal river where she is spotted by a French patrol</t>
   </si>
 </sst>
 </file>
@@ -19553,8 +19574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F73EDB4-21E1-4645-951B-ACD04D75080E}">
   <dimension ref="A1:AF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H55" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="U65" sqref="U65"/>
+    <sheetView tabSelected="1" topLeftCell="H76" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19684,7 +19705,7 @@
         <v>337</v>
       </c>
       <c r="R2" t="s">
-        <v>480</v>
+        <v>646</v>
       </c>
       <c r="S2" t="s">
         <v>55</v>
@@ -21069,7 +21090,7 @@
         <v>490</v>
       </c>
       <c r="Q25" t="s">
-        <v>374</v>
+        <v>645</v>
       </c>
       <c r="R25" t="s">
         <v>481</v>
@@ -22394,7 +22415,7 @@
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" t="s">
-        <v>408</v>
+        <v>644</v>
       </c>
       <c r="R51" t="s">
         <v>481</v>
@@ -22687,7 +22708,7 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" t="s">
-        <v>275</v>
+        <v>643</v>
       </c>
       <c r="R56" t="s">
         <v>481</v>
@@ -24440,7 +24461,7 @@
         <v>491</v>
       </c>
       <c r="Q86" t="s">
-        <v>463</v>
+        <v>647</v>
       </c>
       <c r="R86" t="s">
         <v>481</v>
@@ -24593,7 +24614,7 @@
         <v>465</v>
       </c>
       <c r="Q89" t="s">
-        <v>466</v>
+        <v>648</v>
       </c>
       <c r="R89" t="s">
         <v>485</v>
@@ -24646,7 +24667,7 @@
         <v>581</v>
       </c>
       <c r="Q90" t="s">
-        <v>468</v>
+        <v>649</v>
       </c>
       <c r="R90" t="s">
         <v>481</v>
